--- a/results/mp/tinybert/toy-spam/confidence/126/stop-words-topk-0.35/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/126/stop-words-topk-0.35/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="65">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,16 +49,19 @@
     <t>poor</t>
   </si>
   <si>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>returned</t>
+  </si>
+  <si>
     <t>however</t>
   </si>
   <si>
-    <t>disappointed</t>
-  </si>
-  <si>
     <t>broke</t>
   </si>
   <si>
-    <t>water</t>
+    <t>junk</t>
   </si>
   <si>
     <t>waste</t>
@@ -67,58 +70,61 @@
     <t>instead</t>
   </si>
   <si>
-    <t>junk</t>
-  </si>
-  <si>
     <t>smaller</t>
   </si>
   <si>
-    <t>guess</t>
-  </si>
-  <si>
     <t>small</t>
   </si>
   <si>
+    <t>apart</t>
+  </si>
+  <si>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>thought</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>cheap</t>
+  </si>
+  <si>
     <t>broken</t>
   </si>
   <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>plastic</t>
-  </si>
-  <si>
-    <t>apart</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>thought</t>
-  </si>
-  <si>
     <t>though</t>
   </si>
   <si>
-    <t>cheap</t>
-  </si>
-  <si>
     <t>size</t>
   </si>
   <si>
+    <t>money</t>
+  </si>
+  <si>
     <t>hard</t>
   </si>
   <si>
+    <t>work</t>
+  </si>
+  <si>
     <t>would</t>
   </si>
   <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>could</t>
+  </si>
+  <si>
     <t>item</t>
   </si>
   <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>money</t>
+    <t>used</t>
   </si>
   <si>
     <t>product</t>
@@ -127,22 +133,25 @@
     <t>price</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>2</t>
+    <t>3</t>
   </si>
   <si>
     <t>use</t>
   </si>
   <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>little</t>
+  </si>
+  <si>
     <t>much</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>little</t>
+    <t>toy</t>
   </si>
   <si>
     <t>one</t>
@@ -184,16 +193,19 @@
     <t>perfect</t>
   </si>
   <si>
+    <t>loved</t>
+  </si>
+  <si>
     <t>friends</t>
   </si>
   <si>
-    <t>loved</t>
-  </si>
-  <si>
     <t>fun</t>
   </si>
   <si>
     <t>game</t>
+  </si>
+  <si>
+    <t>play</t>
   </si>
   <si>
     <t>positive</t>
@@ -554,7 +566,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q38"/>
+  <dimension ref="A1:Q41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -562,10 +574,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -623,13 +635,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="C3">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D3">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -641,19 +653,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K3">
-        <v>0.8214285714285714</v>
+        <v>0.8392857142857143</v>
       </c>
       <c r="L3">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M3">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -665,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -673,13 +685,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7727272727272727</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="C4">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D4">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -691,10 +703,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K4">
         <v>0.8</v>
@@ -723,13 +735,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7605633802816901</v>
+        <v>0.7746478873239436</v>
       </c>
       <c r="C5">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D5">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -741,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K5">
-        <v>0.7096774193548387</v>
+        <v>0.6989247311827957</v>
       </c>
       <c r="L5">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M5">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -765,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -773,13 +785,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.75</v>
+        <v>0.7688172043010753</v>
       </c>
       <c r="C6">
-        <v>48</v>
+        <v>143</v>
       </c>
       <c r="D6">
-        <v>48</v>
+        <v>143</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -791,19 +803,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K6">
-        <v>0.5660377358490566</v>
+        <v>0.6037735849056604</v>
       </c>
       <c r="L6">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M6">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -815,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -823,13 +835,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7473118279569892</v>
+        <v>0.7631578947368421</v>
       </c>
       <c r="C7">
-        <v>139</v>
+        <v>29</v>
       </c>
       <c r="D7">
-        <v>139</v>
+        <v>29</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -841,19 +853,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="K7">
-        <v>0.5625</v>
+        <v>0.546875</v>
       </c>
       <c r="L7">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M7">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -865,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -873,13 +885,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7378640776699029</v>
+        <v>0.734375</v>
       </c>
       <c r="C8">
-        <v>152</v>
+        <v>47</v>
       </c>
       <c r="D8">
-        <v>152</v>
+        <v>47</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -891,19 +903,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K8">
-        <v>0.4782608695652174</v>
+        <v>0.5072463768115942</v>
       </c>
       <c r="L8">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M8">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -915,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -923,13 +935,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6904761904761905</v>
+        <v>0.7281553398058253</v>
       </c>
       <c r="C9">
-        <v>29</v>
+        <v>150</v>
       </c>
       <c r="D9">
-        <v>29</v>
+        <v>150</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -941,19 +953,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K9">
-        <v>0.3688524590163935</v>
+        <v>0.3754098360655738</v>
       </c>
       <c r="L9">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="M9">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -965,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>770</v>
+        <v>762</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -973,13 +985,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6621621621621622</v>
+        <v>0.6909090909090909</v>
       </c>
       <c r="C10">
-        <v>98</v>
+        <v>38</v>
       </c>
       <c r="D10">
-        <v>98</v>
+        <v>38</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -991,19 +1003,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K10">
-        <v>0.3443328550932568</v>
+        <v>0.3285509325681492</v>
       </c>
       <c r="L10">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="M10">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1015,7 +1027,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1023,13 +1035,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.625</v>
+        <v>0.6891891891891891</v>
       </c>
       <c r="C11">
-        <v>30</v>
+        <v>102</v>
       </c>
       <c r="D11">
-        <v>30</v>
+        <v>102</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1041,19 +1053,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K11">
-        <v>0.3049792531120332</v>
+        <v>0.2925311203319502</v>
       </c>
       <c r="L11">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="M11">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1065,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1073,38 +1085,38 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C12">
+        <v>32</v>
+      </c>
+      <c r="D12">
+        <v>32</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>16</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K12">
+        <v>0.275</v>
+      </c>
+      <c r="L12">
         <v>33</v>
       </c>
-      <c r="D12">
+      <c r="M12">
         <v>33</v>
       </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>22</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K12">
-        <v>0.2583333333333334</v>
-      </c>
-      <c r="L12">
-        <v>31</v>
-      </c>
-      <c r="M12">
-        <v>31</v>
-      </c>
       <c r="N12">
         <v>1</v>
       </c>
@@ -1115,7 +1127,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1123,13 +1135,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5630252100840336</v>
+        <v>0.6386554621848739</v>
       </c>
       <c r="C13">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="D13">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1141,10 +1153,10 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K13">
         <v>0.2228915662650602</v>
@@ -1173,13 +1185,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5555555555555556</v>
+        <v>0.5159420289855072</v>
       </c>
       <c r="C14">
-        <v>30</v>
+        <v>178</v>
       </c>
       <c r="D14">
-        <v>30</v>
+        <v>178</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1191,19 +1203,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>24</v>
+        <v>167</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="K14">
-        <v>0.201058201058201</v>
+        <v>0.2018348623853211</v>
       </c>
       <c r="L14">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="M14">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1215,7 +1227,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>151</v>
+        <v>261</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1223,13 +1235,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4840579710144928</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="C15">
-        <v>167</v>
+        <v>45</v>
       </c>
       <c r="D15">
-        <v>167</v>
+        <v>45</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1241,19 +1253,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>178</v>
+        <v>50</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K15">
-        <v>0.1926605504587156</v>
+        <v>0.1693121693121693</v>
       </c>
       <c r="L15">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="M15">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1265,7 +1277,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>264</v>
+        <v>157</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1273,13 +1285,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4578313253012048</v>
+        <v>0.4251968503937008</v>
       </c>
       <c r="C16">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="D16">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1291,19 +1303,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="K16">
-        <v>0.1218229623137599</v>
+        <v>0.1095530236634531</v>
       </c>
       <c r="L16">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="M16">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1315,7 +1327,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>1002</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1323,13 +1335,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.453125</v>
+        <v>0.3960396039603961</v>
       </c>
       <c r="C17">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="D17">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1341,19 +1353,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>35</v>
+        <v>122</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="K17">
-        <v>0.045425048669695</v>
+        <v>0.06035042180402336</v>
       </c>
       <c r="L17">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="M17">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1365,7 +1377,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>1471</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1373,13 +1385,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4409448818897638</v>
+        <v>0.3828125</v>
       </c>
       <c r="C18">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D18">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1391,7 +1403,31 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>71</v>
+        <v>79</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K18">
+        <v>0.04</v>
+      </c>
+      <c r="L18">
+        <v>30</v>
+      </c>
+      <c r="M18">
+        <v>32</v>
+      </c>
+      <c r="N18">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O18">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P18" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q18">
+        <v>720</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1399,13 +1435,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4210526315789473</v>
+        <v>0.3820224719101123</v>
       </c>
       <c r="C19">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D19">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1425,13 +1461,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.3671875</v>
+        <v>0.3744075829383886</v>
       </c>
       <c r="C20">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="D20">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1443,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>81</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1451,13 +1487,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.3465346534653465</v>
+        <v>0.3614457831325301</v>
       </c>
       <c r="C21">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="D21">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1469,7 +1505,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>132</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1477,13 +1513,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.3076923076923077</v>
+        <v>0.264957264957265</v>
       </c>
       <c r="C22">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D22">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1495,7 +1531,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1503,13 +1539,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.3033175355450237</v>
+        <v>0.2577319587628866</v>
       </c>
       <c r="C23">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="D23">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1521,7 +1557,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1529,13 +1565,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.288659793814433</v>
+        <v>0.2341772151898734</v>
       </c>
       <c r="C24">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="D24">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1547,7 +1583,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>138</v>
+        <v>242</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1555,13 +1591,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.235</v>
+        <v>0.22</v>
       </c>
       <c r="C25">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D25">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1573,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1581,13 +1617,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.21513353115727</v>
+        <v>0.2056962025316456</v>
       </c>
       <c r="C26">
-        <v>145</v>
+        <v>65</v>
       </c>
       <c r="D26">
-        <v>145</v>
+        <v>65</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1599,7 +1635,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>529</v>
+        <v>251</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1607,13 +1643,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.1992753623188406</v>
+        <v>0.1973293768545994</v>
       </c>
       <c r="C27">
-        <v>55</v>
+        <v>133</v>
       </c>
       <c r="D27">
-        <v>55</v>
+        <v>133</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1625,7 +1661,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>221</v>
+        <v>541</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1633,13 +1669,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.1962025316455696</v>
+        <v>0.1962616822429906</v>
       </c>
       <c r="C28">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="D28">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1651,7 +1687,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>254</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1659,13 +1695,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.1867088607594937</v>
+        <v>0.1847133757961783</v>
       </c>
       <c r="C29">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="D29">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1677,7 +1713,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>257</v>
+        <v>128</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1685,25 +1721,25 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.1699779249448124</v>
+        <v>0.1811594202898551</v>
       </c>
       <c r="C30">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="D30">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="E30">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30">
-        <v>376</v>
+        <v>226</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1711,13 +1747,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.1637931034482759</v>
+        <v>0.1771428571428571</v>
       </c>
       <c r="C31">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="D31">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1729,7 +1765,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>291</v>
+        <v>144</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1737,25 +1773,25 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.1355140186915888</v>
+        <v>0.17439293598234</v>
       </c>
       <c r="C32">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="D32">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32">
-        <v>185</v>
+        <v>374</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1763,13 +1799,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.1198501872659176</v>
+        <v>0.1494252873563219</v>
       </c>
       <c r="C33">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="D33">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1781,7 +1817,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>235</v>
+        <v>296</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1789,13 +1825,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.1095890410958904</v>
+        <v>0.1290322580645161</v>
       </c>
       <c r="C34">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D34">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1807,7 +1843,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>325</v>
+        <v>216</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1815,25 +1851,25 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.08430913348946135</v>
+        <v>0.09615384615384616</v>
       </c>
       <c r="C35">
+        <v>35</v>
+      </c>
+      <c r="D35">
         <v>36</v>
       </c>
-      <c r="D35">
-        <v>43</v>
-      </c>
       <c r="E35">
-        <v>0.16</v>
+        <v>0.03</v>
       </c>
       <c r="F35">
-        <v>0.84</v>
+        <v>0.97</v>
       </c>
       <c r="G35" t="b">
         <v>1</v>
       </c>
       <c r="H35">
-        <v>391</v>
+        <v>329</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1841,13 +1877,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.07084019769357495</v>
+        <v>0.09060955518945635</v>
       </c>
       <c r="C36">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="D36">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="E36">
         <v>0.02</v>
@@ -1859,7 +1895,7 @@
         <v>1</v>
       </c>
       <c r="H36">
-        <v>564</v>
+        <v>552</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1867,25 +1903,25 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.06919642857142858</v>
+        <v>0.08450704225352113</v>
       </c>
       <c r="C37">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D37">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E37">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F37">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37">
-        <v>417</v>
+        <v>325</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1893,25 +1929,103 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.04822335025380711</v>
+        <v>0.0779510022271715</v>
       </c>
       <c r="C38">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D38">
+        <v>35</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38" t="b">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E38">
-        <v>0.14</v>
-      </c>
-      <c r="F38">
-        <v>0.86</v>
-      </c>
-      <c r="G38" t="b">
-        <v>1</v>
-      </c>
-      <c r="H38">
-        <v>750</v>
+      <c r="B39">
+        <v>0.07192575406032482</v>
+      </c>
+      <c r="C39">
+        <v>31</v>
+      </c>
+      <c r="D39">
+        <v>34</v>
+      </c>
+      <c r="E39">
+        <v>0.09</v>
+      </c>
+      <c r="F39">
+        <v>0.91</v>
+      </c>
+      <c r="G39" t="b">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40">
+        <v>0.05045871559633028</v>
+      </c>
+      <c r="C40">
+        <v>33</v>
+      </c>
+      <c r="D40">
+        <v>34</v>
+      </c>
+      <c r="E40">
+        <v>0.03</v>
+      </c>
+      <c r="F40">
+        <v>0.97</v>
+      </c>
+      <c r="G40" t="b">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41">
+        <v>0.04949238578680203</v>
+      </c>
+      <c r="C41">
+        <v>39</v>
+      </c>
+      <c r="D41">
+        <v>45</v>
+      </c>
+      <c r="E41">
+        <v>0.13</v>
+      </c>
+      <c r="F41">
+        <v>0.87</v>
+      </c>
+      <c r="G41" t="b">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>749</v>
       </c>
     </row>
   </sheetData>
